--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2130131\Documents\Faculdade\Semestre 03\OPE\Comercio_5G_ICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0E0D1F-5EEE-40F8-A4F4-09958949CB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F7DCE-FEC3-432F-AD32-B7498E045E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{19EAB9C8-CD72-40E8-B32E-10D24B38F00F}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19EAB9C8-CD72-40E8-B32E-10D24B38F00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Cancelamento do Pedido</t>
   </si>
   <si>
-    <t>Cliente solicitar pedido</t>
-  </si>
-  <si>
     <t>Cliente solicitar cancelamento</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Cliente receber pedido</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70030D-5632-4E9B-ACCA-A725EB4710A6}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -708,18 +708,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -728,19 +728,19 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
@@ -750,17 +750,17 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -770,19 +770,19 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -792,19 +792,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -812,18 +812,18 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -832,17 +832,17 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -852,16 +852,16 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
@@ -884,15 +884,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009CF7F73210E25E4C80F38D3AF8DBA1CE" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f4b01a8aab06a74c663e81f44f7103d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f48301a-8fe6-4e77-9b8b-4bfb63225020" xmlns:ns4="cb39491a-d688-40e9-85ac-9e954f52aece" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac2c09bf574d1e9d141ea8a09af14673" ns3:_="" ns4:_="">
     <xsd:import namespace="6f48301a-8fe6-4e77-9b8b-4bfb63225020"/>
@@ -1081,6 +1072,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1088,14 +1088,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F9568F-C0B6-4336-8C91-95CDA1287F98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D42C679-373A-4C94-B0D6-E7162B924B93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1110,6 +1102,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F9568F-C0B6-4336-8C91-95CDA1287F98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/17 - Análise dos Eventos para cada Cenário.xlsx
+++ b/17 - Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2130131\Documents\Faculdade\Semestre 03\OPE\Comercio_5G_ICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4403B571-77D4-4E79-8F2A-DDA7D019765D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B686B-5491-4D6E-8192-1C3FF984EC36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Externo</t>
   </si>
@@ -66,9 +66,6 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -121,13 +118,157 @@
   </si>
   <si>
     <t>x(8)</t>
+  </si>
+  <si>
+    <t>Cliente Faz pedido</t>
+  </si>
+  <si>
+    <r>
+      <t>Previsível</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Não Previsível</t>
+  </si>
+  <si>
+    <r>
+      <t>Relativo</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Não Evento</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Extem-porâneo</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Livros</t>
+  </si>
+  <si>
+    <t>Cliente faz pedido de livros</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Livraria valida pedido</t>
+  </si>
+  <si>
+    <t>x (1)</t>
+  </si>
+  <si>
+    <t>Cliente efetua pagamento do pedido</t>
+  </si>
+  <si>
+    <t>x (2)</t>
+  </si>
+  <si>
+    <t>Livraria envia livros</t>
+  </si>
+  <si>
+    <t>x (3)</t>
+  </si>
+  <si>
+    <t>Cliente recebe livros</t>
+  </si>
+  <si>
+    <t>Livraria Finaliza o pedido</t>
+  </si>
+  <si>
+    <t>Cliente cancela pedido</t>
+  </si>
+  <si>
+    <t>Cliente devolve livros</t>
+  </si>
+  <si>
+    <t>x (5)</t>
+  </si>
+  <si>
+    <t>Livraria não recebe o pagamento</t>
+  </si>
+  <si>
+    <t>Suprir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produtos</t>
+  </si>
+  <si>
+    <t>6-feira: Livraria compra livros dos Fornecedores</t>
+  </si>
+  <si>
+    <t>Fornecedor envia livros</t>
+  </si>
+  <si>
+    <t>x (10)</t>
+  </si>
+  <si>
+    <t>Fornecedor cancela a venda de livros</t>
+  </si>
+  <si>
+    <t>Fornecedor não envia livros</t>
+  </si>
+  <si>
+    <t>x (11)</t>
+  </si>
+  <si>
+    <t>Gerir o Negócio</t>
+  </si>
+  <si>
+    <t>Livraria atualiza a lista de preços</t>
+  </si>
+  <si>
+    <t>Falha</t>
+  </si>
+  <si>
+    <t>Livraria não enviou livros</t>
+  </si>
+  <si>
+    <t>x (4)</t>
+  </si>
+  <si>
+    <t>Cliente reclama não recebimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +306,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +375,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -305,25 +507,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -333,6 +654,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,6 +674,108 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,221 +1077,575 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="24">
+        <v>2</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="24">
+        <v>3</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="24">
+        <v>4</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="24">
+        <v>5</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="24">
+        <v>6</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24">
+        <v>7</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="24">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="E24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="24">
+        <v>9</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="24">
+        <v>10</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="24">
+        <v>11</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="24">
+        <v>12</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="24">
+        <v>13</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="24">
+        <v>14</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="48"/>
+      <c r="C31" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="24">
+        <v>15</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="24">
+        <v>16</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:C22"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="B4:C4"/>
